--- a/src/main/resources/word/temp_进出口明细表.xlsx
+++ b/src/main/resources/word/temp_进出口明细表.xlsx
@@ -183,7 +183,7 @@
     <t>换汇成本</t>
   </si>
   <si>
-    <t>t.exchangeRate</t>
+    <t>t.exchangeCost</t>
   </si>
   <si>
     <t>日期：</t>
@@ -233,22 +233,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="mm/dd/yy_)"/>
+    <numFmt numFmtId="186" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="187" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -291,6 +291,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -303,12 +309,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -316,14 +316,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -335,19 +356,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
@@ -357,34 +365,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="蹈框"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -397,10 +445,10 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="0"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -409,57 +457,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -502,13 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +520,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,79 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +771,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -782,17 +817,6 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,21 +837,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -841,211 +850,202 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="10" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="10" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="34" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,96 +1075,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1173,77 +1173,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="Grey" xfId="4"/>
-    <cellStyle name="Input [yellow]" xfId="5"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
-    <cellStyle name="Percent [2]" xfId="7"/>
-    <cellStyle name="S1-0" xfId="8"/>
-    <cellStyle name="S1-1" xfId="9"/>
-    <cellStyle name="S1-2" xfId="10"/>
-    <cellStyle name="S1-3" xfId="11"/>
-    <cellStyle name="S1-5" xfId="12"/>
-    <cellStyle name="常规_Sheet1" xfId="13"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
-    <cellStyle name="霓付_97MBO" xfId="15"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
-    <cellStyle name="千分位_ 白土" xfId="17"/>
-    <cellStyle name="千位[0]_laroux" xfId="18"/>
-    <cellStyle name="钎霖_laroux" xfId="19"/>
-    <cellStyle name="样式 1" xfId="20"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="钎霖_laroux" xfId="2"/>
+    <cellStyle name="千位[0]_laroux" xfId="3"/>
+    <cellStyle name="千分位_ 白土" xfId="4"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
+    <cellStyle name="霓付_97MBO" xfId="6"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
+    <cellStyle name="常规_Sheet1" xfId="8"/>
+    <cellStyle name="S1-5" xfId="9"/>
+    <cellStyle name="S1-3" xfId="10"/>
+    <cellStyle name="S1-2" xfId="11"/>
+    <cellStyle name="S1-1" xfId="12"/>
+    <cellStyle name="S1-0" xfId="13"/>
+    <cellStyle name="Percent [2]" xfId="14"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
+    <cellStyle name="Input [yellow]" xfId="16"/>
+    <cellStyle name="Grey" xfId="17"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1279,8 +1279,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="_Book1" xfId="56"/>
-    <cellStyle name="S1-4" xfId="57"/>
+    <cellStyle name="S1-4" xfId="56"/>
+    <cellStyle name="_Book1" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1624,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>

--- a/src/main/resources/word/temp_进出口明细表.xlsx
+++ b/src/main/resources/word/temp_进出口明细表.xlsx
@@ -66,7 +66,7 @@
     <t>成交价格：</t>
   </si>
   <si>
-    <t>{{dealPrice}}</t>
+    <t>{{dealPriceType}}</t>
   </si>
   <si>
     <t>品名及规格</t>
@@ -233,22 +233,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="186" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="187" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="183" formatCode="mm/dd/yy_)"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="0.00_ "/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -297,11 +297,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
@@ -309,6 +304,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -316,6 +317,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -323,25 +365,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -350,16 +373,61 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="蹈框"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -371,29 +439,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -401,71 +446,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -508,7 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,55 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +762,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -771,13 +786,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,47 +840,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,197 +855,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="28" fillId="14" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="14" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,96 +1075,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1173,77 +1173,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="钎霖_laroux" xfId="2"/>
-    <cellStyle name="千位[0]_laroux" xfId="3"/>
-    <cellStyle name="千分位_ 白土" xfId="4"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
-    <cellStyle name="霓付_97MBO" xfId="6"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
-    <cellStyle name="常规_Sheet1" xfId="8"/>
-    <cellStyle name="S1-5" xfId="9"/>
-    <cellStyle name="S1-3" xfId="10"/>
-    <cellStyle name="S1-2" xfId="11"/>
-    <cellStyle name="S1-1" xfId="12"/>
-    <cellStyle name="S1-0" xfId="13"/>
-    <cellStyle name="Percent [2]" xfId="14"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
-    <cellStyle name="Input [yellow]" xfId="16"/>
-    <cellStyle name="Grey" xfId="17"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="Grey" xfId="4"/>
+    <cellStyle name="Input [yellow]" xfId="5"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
+    <cellStyle name="Percent [2]" xfId="7"/>
+    <cellStyle name="S1-0" xfId="8"/>
+    <cellStyle name="S1-1" xfId="9"/>
+    <cellStyle name="S1-2" xfId="10"/>
+    <cellStyle name="S1-3" xfId="11"/>
+    <cellStyle name="S1-5" xfId="12"/>
+    <cellStyle name="常规_Sheet1" xfId="13"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
+    <cellStyle name="霓付_97MBO" xfId="15"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
+    <cellStyle name="千分位_ 白土" xfId="17"/>
+    <cellStyle name="千位[0]_laroux" xfId="18"/>
+    <cellStyle name="钎霖_laroux" xfId="19"/>
+    <cellStyle name="样式 1" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1279,8 +1279,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="S1-4" xfId="56"/>
-    <cellStyle name="_Book1" xfId="57"/>
+    <cellStyle name="_Book1" xfId="56"/>
+    <cellStyle name="S1-4" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1624,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>

--- a/src/main/resources/word/temp_进出口明细表.xlsx
+++ b/src/main/resources/word/temp_进出口明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="18020" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="0602HOMETECH" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>广 东 省 新 立 电 子 信 息 进 出 口 有 限 公 司</t>
   </si>
@@ -51,7 +51,10 @@
     <t>{{packingKouAn}}</t>
   </si>
   <si>
-    <t>出口合同号：{{buyingContractNo}}</t>
+    <t>出口合同号：</t>
+  </si>
+  <si>
+    <t>{{buyingContractNo}}</t>
   </si>
   <si>
     <t>目的口岸：</t>
@@ -60,7 +63,10 @@
     <t>{{sendingKouAn}}</t>
   </si>
   <si>
-    <t>收购合同号：{{sellingContractNo}}</t>
+    <t>收购合同号：</t>
+  </si>
+  <si>
+    <t>{{sellingContractNo}}</t>
   </si>
   <si>
     <t>成交价格：</t>
@@ -132,7 +138,7 @@
     <t>t.subtotalSellingPrice</t>
   </si>
   <si>
-    <t>t.googsProducer</t>
+    <t>t.goodsProducer</t>
   </si>
   <si>
     <t>t.buyingPrice</t>
@@ -233,22 +239,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="183" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="0.00_ "/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="mm/dd/yy_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -297,15 +303,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -317,15 +323,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -339,95 +346,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -446,7 +366,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -456,10 +402,70 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="蹈框"/>
       <charset val="134"/>
     </font>
     <font>
@@ -520,13 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,61 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +753,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -782,21 +764,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +779,17 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,19 +812,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,197 +861,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="19" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="14" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,96 +1081,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1173,77 +1179,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="Grey" xfId="4"/>
-    <cellStyle name="Input [yellow]" xfId="5"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
-    <cellStyle name="Percent [2]" xfId="7"/>
-    <cellStyle name="S1-0" xfId="8"/>
-    <cellStyle name="S1-1" xfId="9"/>
-    <cellStyle name="S1-2" xfId="10"/>
-    <cellStyle name="S1-3" xfId="11"/>
-    <cellStyle name="S1-5" xfId="12"/>
-    <cellStyle name="常规_Sheet1" xfId="13"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
-    <cellStyle name="霓付_97MBO" xfId="15"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
-    <cellStyle name="千分位_ 白土" xfId="17"/>
-    <cellStyle name="千位[0]_laroux" xfId="18"/>
-    <cellStyle name="钎霖_laroux" xfId="19"/>
-    <cellStyle name="样式 1" xfId="20"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="钎霖_laroux" xfId="2"/>
+    <cellStyle name="千位[0]_laroux" xfId="3"/>
+    <cellStyle name="千分位_ 白土" xfId="4"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
+    <cellStyle name="霓付_97MBO" xfId="6"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
+    <cellStyle name="常规_Sheet1" xfId="8"/>
+    <cellStyle name="S1-5" xfId="9"/>
+    <cellStyle name="S1-3" xfId="10"/>
+    <cellStyle name="S1-2" xfId="11"/>
+    <cellStyle name="S1-1" xfId="12"/>
+    <cellStyle name="S1-0" xfId="13"/>
+    <cellStyle name="Percent [2]" xfId="14"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
+    <cellStyle name="Input [yellow]" xfId="16"/>
+    <cellStyle name="Grey" xfId="17"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1279,8 +1285,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="_Book1" xfId="56"/>
-    <cellStyle name="S1-4" xfId="57"/>
+    <cellStyle name="S1-4" xfId="56"/>
+    <cellStyle name="_Book1" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1624,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:N24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -1744,7 +1750,9 @@
       <c r="A7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -1753,10 +1761,10 @@
       <c r="H7" s="61"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
@@ -1764,9 +1772,11 @@
     </row>
     <row r="8" s="49" customFormat="1" ht="17.25" customHeight="1" spans="1:14">
       <c r="A8" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="55"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
@@ -1775,10 +1785,10 @@
       <c r="H8" s="61"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" s="54"/>
       <c r="M8" s="54"/>
@@ -1786,37 +1796,37 @@
     </row>
     <row r="9" s="49" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A9" s="56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N9" s="65"/>
     </row>
@@ -1826,20 +1836,20 @@
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
       <c r="E10" s="56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="57"/>
@@ -1848,43 +1858,43 @@
     </row>
     <row r="11" s="49" customFormat="1" ht="66" spans="1:14">
       <c r="A11" s="56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" s="65"/>
     </row>
@@ -2018,32 +2028,32 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
@@ -2053,13 +2063,13 @@
       <c r="B21" s="55"/>
       <c r="C21" s="54"/>
       <c r="D21" s="54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
@@ -2180,7 +2190,9 @@
       <c r="A28" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -2189,10 +2201,10 @@
       <c r="H28" s="61"/>
       <c r="I28" s="54"/>
       <c r="J28" s="54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" s="54"/>
       <c r="M28" s="54"/>
@@ -2200,9 +2212,11 @@
     </row>
     <row r="29" s="49" customFormat="1" ht="17.25" customHeight="1" spans="1:14">
       <c r="A29" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="55"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
@@ -2211,10 +2225,10 @@
       <c r="H29" s="61"/>
       <c r="I29" s="54"/>
       <c r="J29" s="54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L29" s="54"/>
       <c r="M29" s="54"/>
@@ -2222,40 +2236,40 @@
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:14">
       <c r="A30" s="56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" s="62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
       <c r="K30" s="57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L30" s="57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N30" s="56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2264,20 +2278,20 @@
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
       <c r="E31" s="56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G31" s="56"/>
       <c r="H31" s="62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I31" s="62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J31" s="62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
@@ -2286,46 +2300,46 @@
     </row>
     <row r="32" ht="66" spans="1:14">
       <c r="A32" s="56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H32" s="56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J32" s="56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K32" s="56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L32" s="56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M32" s="56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N32" s="56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2458,32 +2472,32 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="56"/>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
       <c r="F41" s="63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41" s="56"/>
       <c r="H41" s="64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" s="64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41" s="64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K41" s="64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L41" s="64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M41" s="62"/>
       <c r="N41" s="62"/>
@@ -2493,18 +2507,18 @@
       <c r="B42" s="55"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="54"/>
       <c r="K42" s="54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
@@ -3314,20 +3328,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="13.75" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="13.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -3338,44 +3352,44 @@
     <row r="6" ht="13.75"/>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="13.75" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="13.75"/>
     <row r="14" ht="13.75" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="13.75"/>
     <row r="17" ht="13.75" spans="3:3">
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="14" spans="3:3">
@@ -3383,7 +3397,7 @@
     </row>
     <row r="26" ht="13.75" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/word/temp_进出口明细表.xlsx
+++ b/src/main/resources/word/temp_进出口明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18020" windowHeight="10640"/>
+    <workbookView windowWidth="25600" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="0602HOMETECH" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="Print_Area_MI" localSheetId="3">#REF!</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -54,19 +54,19 @@
     <t>出口合同号：</t>
   </si>
   <si>
+    <t>{{sellingContractNo}}</t>
+  </si>
+  <si>
+    <t>目的口岸：</t>
+  </si>
+  <si>
+    <t>{{sendingKouAn}}</t>
+  </si>
+  <si>
+    <t>收购合同号：</t>
+  </si>
+  <si>
     <t>{{buyingContractNo}}</t>
-  </si>
-  <si>
-    <t>目的口岸：</t>
-  </si>
-  <si>
-    <t>{{sendingKouAn}}</t>
-  </si>
-  <si>
-    <t>收购合同号：</t>
-  </si>
-  <si>
-    <t>{{sellingContractNo}}</t>
   </si>
   <si>
     <t>成交价格：</t>
@@ -239,21 +239,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="16">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="189" formatCode="mm/dd/yy_)"/>
   </numFmts>
   <fonts count="35">
@@ -297,6 +297,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -309,23 +314,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -337,118 +328,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Helv"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -464,13 +348,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="蹈框"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -520,13 +520,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +586,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,79 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,33 +762,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color indexed="62"/>
       </bottom>
       <diagonal/>
@@ -811,9 +809,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,17 +842,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="22"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,197 +861,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="19" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="21" fillId="11" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,96 +1081,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1179,77 +1179,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="钎霖_laroux" xfId="2"/>
-    <cellStyle name="千位[0]_laroux" xfId="3"/>
-    <cellStyle name="千分位_ 白土" xfId="4"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
-    <cellStyle name="霓付_97MBO" xfId="6"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
-    <cellStyle name="常规_Sheet1" xfId="8"/>
-    <cellStyle name="S1-5" xfId="9"/>
-    <cellStyle name="S1-3" xfId="10"/>
-    <cellStyle name="S1-2" xfId="11"/>
-    <cellStyle name="S1-1" xfId="12"/>
-    <cellStyle name="S1-0" xfId="13"/>
-    <cellStyle name="Percent [2]" xfId="14"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
-    <cellStyle name="Input [yellow]" xfId="16"/>
-    <cellStyle name="Grey" xfId="17"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="Grey" xfId="4"/>
+    <cellStyle name="Input [yellow]" xfId="5"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
+    <cellStyle name="Percent [2]" xfId="7"/>
+    <cellStyle name="S1-0" xfId="8"/>
+    <cellStyle name="S1-1" xfId="9"/>
+    <cellStyle name="S1-2" xfId="10"/>
+    <cellStyle name="S1-3" xfId="11"/>
+    <cellStyle name="S1-5" xfId="12"/>
+    <cellStyle name="常规_Sheet1" xfId="13"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
+    <cellStyle name="霓付_97MBO" xfId="15"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
+    <cellStyle name="千分位_ 白土" xfId="17"/>
+    <cellStyle name="千位[0]_laroux" xfId="18"/>
+    <cellStyle name="钎霖_laroux" xfId="19"/>
+    <cellStyle name="样式 1" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1285,8 +1285,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="S1-4" xfId="56"/>
-    <cellStyle name="_Book1" xfId="57"/>
+    <cellStyle name="_Book1" xfId="56"/>
+    <cellStyle name="S1-4" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1630,11 +1630,11 @@
   <sheetPr/>
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="8.125" style="50" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="50" customWidth="1"/>
@@ -1856,7 +1856,7 @@
       <c r="M10" s="56"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" s="49" customFormat="1" ht="66" spans="1:14">
+    <row r="11" s="49" customFormat="1" ht="65" spans="1:14">
       <c r="A11" s="56" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="54"/>
       <c r="H28" s="61"/>
       <c r="I28" s="54"/>
@@ -2298,7 +2298,7 @@
       <c r="M31" s="67"/>
       <c r="N31" s="56"/>
     </row>
-    <row r="32" ht="66" spans="1:14">
+    <row r="32" ht="65" spans="1:14">
       <c r="A32" s="56" t="s">
         <v>29</v>
       </c>
@@ -2567,7 +2567,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="9.625" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="12" customWidth="1"/>
@@ -3302,7 +3302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3318,7 +3318,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.25" style="1" customWidth="1"/>
@@ -3331,12 +3331,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" ht="13.75" spans="1:1">
+    <row r="2" ht="12.75" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="13.75" spans="1:3">
+    <row r="3" ht="12.75" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" ht="13.75"/>
+    <row r="6" ht="12.75"/>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>58</v>
@@ -3370,19 +3370,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" ht="13.75" spans="1:1">
+    <row r="11" ht="12.75" spans="1:1">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" ht="13.75"/>
-    <row r="14" ht="13.75" spans="1:1">
+    <row r="13" ht="12.75"/>
+    <row r="14" ht="12.75" spans="1:1">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" ht="13.75"/>
-    <row r="17" ht="13.75" spans="3:3">
+    <row r="16" ht="12.75"/>
+    <row r="17" ht="12.75" spans="3:3">
       <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3392,10 +3392,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="3:3">
+    <row r="21" ht="13.6" spans="3:3">
       <c r="C21" s="10"/>
     </row>
-    <row r="26" ht="13.75" spans="3:3">
+    <row r="26" ht="12.75" spans="3:3">
       <c r="C26" s="11" t="s">
         <v>66</v>
       </c>
